--- a/Report 1/report-50900836-TTCNPM.xlsx
+++ b/Report 1/report-50900836-TTCNPM.xlsx
@@ -126,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>Project</t>
   </si>
@@ -195,6 +195,12 @@
   </si>
   <si>
     <t>MT09KH01</t>
+  </si>
+  <si>
+    <t>Đọc hướng dẫn sử dụng SUBVERSION</t>
+  </si>
+  <si>
+    <t>report1-50900836.docx</t>
   </si>
 </sst>
 </file>
@@ -263,7 +269,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -301,11 +307,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -319,9 +373,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -337,6 +388,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -636,13 +708,13 @@
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="2" max="2" width="35.5703125" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" customWidth="1"/>
     <col min="4" max="4" width="18.5703125" customWidth="1"/>
     <col min="8" max="8" width="17.85546875" customWidth="1"/>
     <col min="14" max="14" width="25.140625" customWidth="1"/>
@@ -664,90 +736,93 @@
       <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="10"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="9"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="10"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="9"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="N3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="10"/>
+      <c r="O3" s="9"/>
     </row>
     <row r="4" spans="1:15" ht="15.75">
       <c r="A4" s="1">
         <v>40975</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="G4" s="1"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="2" t="s">
         <v>18</v>
       </c>
@@ -759,19 +834,24 @@
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="10"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="9"/>
     </row>
     <row r="5" spans="1:15" ht="15.75">
       <c r="A5" s="1">
         <v>40975</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="G5" s="1"/>
+      <c r="C5" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="13"/>
       <c r="H5" s="2" t="s">
         <v>18</v>
       </c>
@@ -783,254 +863,266 @@
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="10"/>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="10"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="9"/>
+    </row>
+    <row r="6" spans="1:15" ht="15.75">
+      <c r="A6" s="1">
+        <v>40977</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="8">
+        <v>2</v>
+      </c>
+      <c r="J6" s="8">
+        <v>1</v>
+      </c>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="9"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="10"/>
+      <c r="A7" s="1"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="9"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="10"/>
+      <c r="A8" s="1"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="9"/>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="10"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="9"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="10"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="9"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="10"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="9"/>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="10"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="9"/>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="10"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="9"/>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="10"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="9"/>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="10"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="9"/>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="10"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="9"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="10"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="9"/>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="10"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="9"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="10"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="F1:G1"/>
+    <mergeCell ref="C5:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
